--- a/Literature review/Notetaking matrix for literature review.xlsx
+++ b/Literature review/Notetaking matrix for literature review.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyoscar/Desktop/SIT723 - Research Project A/Literature review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A86FE06-CD86-0A4A-BF21-9A8BEB4DD576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681B4FD-4455-FD4A-8213-9D6958AF5913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="6700" windowWidth="26620" windowHeight="16440" activeTab="1" xr2:uid="{5F167C82-85BB-924D-9041-33F73C97E96E}"/>
+    <workbookView xWindow="17460" yWindow="9680" windowWidth="36720" windowHeight="16440" xr2:uid="{5F167C82-85BB-924D-9041-33F73C97E96E}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Summary Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">Title and Author </t>
   </si>
@@ -84,26 +84,20 @@
     <t>Strengths, weaknesses, links to other sources</t>
   </si>
   <si>
-    <t>Automated Extraction and Clustering of Requirements Glossary Terms - Arora et al (2017)</t>
-  </si>
-  <si>
-    <t>Develop and evaluate an automated approach for requirements glossary extraction and clustering.</t>
-  </si>
-  <si>
-    <t>Industrial case studies with three industry partners, and questionnaires for practitioners.</t>
-  </si>
-  <si>
-    <t>Study limited to just 3 case studies and most NLP techniques might be obsolete.Article’s results have been hence bettered by state-of-the-art NLP techniques by Wang et al (2019).</t>
-  </si>
-  <si>
-    <t>Text chunking is an effective tool for extracting glossary terms from software/system requirements documents.Number of clusters is an important consideration, and can be addressed using mathematical guidelines provided in the article.Clusters are a useful aid for defining glossary terms, identifying related terms and detecting terminological inconsistencies.</t>
+    <t xml:space="preserve">A Survey on Bias and Fairness in Machine Learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gautam Kishore Shahi, 2020, Fake Covid - A Multilingual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +118,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="LinBiolinumTB"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,8 +153,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391D1AED-E0BE-4544-AB20-0056461CEBC5}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
@@ -488,7 +489,7 @@
     <col min="9" max="9" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="68">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,29 +518,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="134" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732981BF-1CFA-374A-A019-8ABA3D744A81}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" customWidth="1"/>
+    <col min="5" max="5" width="77.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -556,29 +568,275 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="328" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="328" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="63">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="20">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="20">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="20">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="20">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="20">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="20">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="20">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="20">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="20">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="20">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="20">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="20">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="20">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="20">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="20">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="20">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="20">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="20">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="20">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="20">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="20">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="20">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="20">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="20">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="20">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="20">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="20">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="20">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="20">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="20">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="20">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="20">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="20">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
